--- a/docs/assets/disciplinas/LOT2058.xlsx
+++ b/docs/assets/disciplinas/LOT2058.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2019</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos alunos de Engenharia Bioquímica os conceitos básicos de matemática financeira e Engenharia Econômica.</t>
+    <t>Capacitar os alunos a utilizarem conceitos e ferramentas de matemática financeira para avaliações econômicas de projetos de engenharia</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -88,7 +88,7 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução à Engenharia Econômica; fluxo de caixa; métodos de decisão Depreciação; Excel aplicado à Engenharia Econômica.</t>
+    <t>Introdução à Engenharia Econômica; estimativa de custos; juros; fluxo de caixa; depreciação; comparação entre alternativa de investimentos; ponto de equilíbrio; planilha eletrônica aplicado à Engenharia Econômica.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,7 +97,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1.Introdução à Engenharia Econômica: engenharia econômica como uma ferramenta de análise de tomada de decisão; variável tempo (juros simples; juros compostos); taxa efetiva, nominal e equivalente; relações de equivalência.2.Fluxo de Caixa: estimativa e representação gráfica.3.Métodos de decisão: taxa mínima de atratividade, critérios econômicos de decisão (método do valor presente, método do valor anual, método da taxa interna de retorno); renovação e substituição de equipamentos. 4.Depreciação: métodos de depreciação.5.Excel aplicado à Engenharia Econômica: Utilização de planilhas eletrônicas.</t>
+    <t>1.INTRODUÇÃO À ENGENHARIA ECONÔMICA: necessidades de uma análise econômica de projeto (engenharia econômica como uma ferramenta de análise de tomada de decisão); 2.ESTIMATIVA DE CUTOS: estimativa de investimento de capital (tipos de estimativas de custo de capital; índice de custos mais comuns; métodos para estimar investimento de capital); estimativa de custo de equipamentos; estimativa de custo de produção;3.JUROS: variável tempo (juros simples; juros compostos); taxa efetiva, nominal e equivalente; relações de equivalência. 4.FLUXO DE CAIXA: diagrama de fluxo de caixa; equivalência de fluxo de caixa; séries uniforme e em gradientes; elaboração de fluxo de caixa5.Depreciação: métodos de depreciação;6.COMPARAÇÃO ENTRE ALTERNATIVAS DE INVESTIMENTO: critério de Rentabilidade – método do Valor Anual Uniforme Equivalente (VAU); método do Valor Presente (VP); método da Taxa interna de Retorno (TIR); método da Taxa Interna de Retorno Modificada (TIRM); renovação e substituição de equipamentos; período de retorno;7.Ponto de Equilíbrio de um projeto (break-even-point);8.Planilhas eletrônicas aplicado à análises de Engenharia Econômica.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -109,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>A avaliação será composta por provas, exercícios, projetos, seminários e outras formas que farão a composição da notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+    <t>O método utilizado tem por fundamento a Aprendizagem Baseada em Projetos (PBL) que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, aspectos de liderança e capacidade de comunicação, dentre outras; exercícios individuais realizados no decorrer da disciplina. Para os projetos, os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a um tema de Engenharia de Econômica na área de Engenharia Bioquímica, similar ao que eles irão encontrar na vida real no efetivo exercício de sua profissão.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A nota Final (NF) corresponderá à Média Aritmética das Avaliações</t>
+    <t>A nota do projeto (NP) será individual e será a média ponderada de componentes do projeto, tais como: Projeto Preliminar, Projeto Final, envolvimento do aluno com o projeto, avaliação dos Pares, apresentação de trabalhos, dentre outros;A nota dos exercícios (NE) será a média aritmética dos exercícios individuais;NF = (0,8NP + 0,2NE)</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2n</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1.Fraser, Niall M., Jewkes, Elizabeth M. Engineering Economics: Financial decision making for engineers. 5th Edition. Editora Pearson, 2013.2.Samanez, Carlos Patrício. Engenharia Econômica. São Paulo. Editora Prentice Hall, 2009.3.Hirschfeld, Henrique. Engenharia Econômica e análise de custos. 7ed. Editora Atalas, 2007.4.Ehrlich, Pierre Jacques. Engenharia Econômica. São Paulo. Editora Atlas, 2005.</t>
+    <t>1.Blank L. e Tarquin A. Engenharia Econômica. 6ed. Mc GrawHill, 2007.2.Fraser N. M., Jewkes, Elizabeth M. Engineering Economics: Financial decision making for engineers. 5th Edition. Editora Pearson, 2013. 3.Samanez, Carlos Patrício. Engenharia Econômica. São Paulo. Editora Prentice Hall, 2009. 4.Hirschfeld, Henrique. Engenharia Econômica e análise de custos. 7ed. Editora Atalas, 2007. 5.Ehrlich, Pierre Jacques. Engenharia Econômica. São Paulo. Editora Atlas, 2005 6.Peter, MS. And Timmerhaus, K.D. Plant Design and economic for chemical engineers</t>
   </si>
   <si>
     <t>Requisitos:</t>

--- a/docs/assets/disciplinas/LOT2058.xlsx
+++ b/docs/assets/disciplinas/LOT2058.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Capacitar os alunos a utilizarem conceitos e ferramentas de matemática financeira para avaliações econômicas de projetos de engenharia</t>
+    <t>3444370 - Rita de Cássia Lacerda Brambilla Rodrigues</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3444370 - Rita de Cássia Lacerda Brambilla Rodrigues</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5817181 - Valdeir Arantes</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Introdução à Engenharia Econômica; estimativa de custos; juros; fluxo de caixa; depreciação; comparação entre alternativa de investimentos; ponto de equilíbrio; planilha eletrônica aplicado à Engenharia Econômica.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1.INTRODUÇÃO À ENGENHARIA ECONÔMICA: necessidades de uma análise econômica de projeto (engenharia econômica como uma ferramenta de análise de tomada de decisão); 2.ESTIMATIVA DE CUTOS: estimativa de investimento de capital (tipos de estimativas de custo de capital; índice de custos mais comuns; métodos para estimar investimento de capital); estimativa de custo de equipamentos; estimativa de custo de produção;3.JUROS: variável tempo (juros simples; juros compostos); taxa efetiva, nominal e equivalente; relações de equivalência. 4.FLUXO DE CAIXA: diagrama de fluxo de caixa; equivalência de fluxo de caixa; séries uniforme e em gradientes; elaboração de fluxo de caixa5.Depreciação: métodos de depreciação;6.COMPARAÇÃO ENTRE ALTERNATIVAS DE INVESTIMENTO: critério de Rentabilidade – método do Valor Anual Uniforme Equivalente (VAU); método do Valor Presente (VP); método da Taxa interna de Retorno (TIR); método da Taxa Interna de Retorno Modificada (TIRM); renovação e substituição de equipamentos; período de retorno;7.Ponto de Equilíbrio de um projeto (break-even-point);8.Planilhas eletrônicas aplicado à análises de Engenharia Econômica.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>O método utilizado tem por fundamento a Aprendizagem Baseada em Projetos (PBL) que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, aspectos de liderança e capacidade de comunicação, dentre outras; exercícios individuais realizados no decorrer da disciplina. Para os projetos, os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a um tema de Engenharia de Econômica na área de Engenharia Bioquímica, similar ao que eles irão encontrar na vida real no efetivo exercício de sua profissão.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota do projeto (NP) será individual e será a média ponderada de componentes do projeto, tais como: Projeto Preliminar, Projeto Final, envolvimento do aluno com o projeto, avaliação dos Pares, apresentação de trabalhos, dentre outros;A nota dos exercícios (NE) será a média aritmética dos exercícios individuais;NF = (0,8NP + 0,2NE)</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2n</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.Blank L. e Tarquin A. Engenharia Econômica. 6ed. Mc GrawHill, 2007.2.Fraser N. M., Jewkes, Elizabeth M. Engineering Economics: Financial decision making for engineers. 5th Edition. Editora Pearson, 2013. 3.Samanez, Carlos Patrício. Engenharia Econômica. São Paulo. Editora Prentice Hall, 2009. 4.Hirschfeld, Henrique. Engenharia Econômica e análise de custos. 7ed. Editora Atalas, 2007. 5.Ehrlich, Pierre Jacques. Engenharia Econômica. São Paulo. Editora Atlas, 2005 6.Peter, MS. And Timmerhaus, K.D. Plant Design and economic for chemical engineers</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2058.xlsx
+++ b/docs/assets/disciplinas/LOT2058.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Capacitar os alunos a utilizarem conceitos e ferramentas de matemática financeira para avaliações econômicas de projetos de engenharia</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3444370 - Rita de Cássia Lacerda Brambilla Rodrigues</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5817181 - Valdeir Arantes</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Introdução à Engenharia Econômica; estimativa de custos; juros; fluxo de caixa; depreciação; comparação entre alternativa de investimentos; ponto de equilíbrio; planilha eletrônica aplicado à Engenharia Econômica.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.INTRODUÇÃO À ENGENHARIA ECONÔMICA: necessidades de uma análise econômica de projeto (engenharia econômica como uma ferramenta de análise de tomada de decisão); 2.ESTIMATIVA DE CUTOS: estimativa de investimento de capital (tipos de estimativas de custo de capital; índice de custos mais comuns; métodos para estimar investimento de capital); estimativa de custo de equipamentos; estimativa de custo de produção;3.JUROS: variável tempo (juros simples; juros compostos); taxa efetiva, nominal e equivalente; relações de equivalência. 4.FLUXO DE CAIXA: diagrama de fluxo de caixa; equivalência de fluxo de caixa; séries uniforme e em gradientes; elaboração de fluxo de caixa5.Depreciação: métodos de depreciação;6.COMPARAÇÃO ENTRE ALTERNATIVAS DE INVESTIMENTO: critério de Rentabilidade – método do Valor Anual Uniforme Equivalente (VAU); método do Valor Presente (VP); método da Taxa interna de Retorno (TIR); método da Taxa Interna de Retorno Modificada (TIRM); renovação e substituição de equipamentos; período de retorno;7.Ponto de Equilíbrio de um projeto (break-even-point);8.Planilhas eletrônicas aplicado à análises de Engenharia Econômica.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5817181 - Valdeir Arantes</t>
+    <t>O método utilizado tem por fundamento a Aprendizagem Baseada em Projetos (PBL) que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, aspectos de liderança e capacidade de comunicação, dentre outras; exercícios individuais realizados no decorrer da disciplina. Para os projetos, os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a um tema de Engenharia de Econômica na área de Engenharia Bioquímica, similar ao que eles irão encontrar na vida real no efetivo exercício de sua profissão.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O método utilizado tem por fundamento a Aprendizagem Baseada em Projetos (PBL) que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, aspectos de liderança e capacidade de comunicação, dentre outras; exercícios individuais realizados no decorrer da disciplina. Para os projetos, os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a um tema de Engenharia de Econômica na área de Engenharia Bioquímica, similar ao que eles irão encontrar na vida real no efetivo exercício de sua profissão.</t>
+    <t>A nota do projeto (NP) será individual e será a média ponderada de componentes do projeto, tais como: Projeto Preliminar, Projeto Final, envolvimento do aluno com o projeto, avaliação dos Pares, apresentação de trabalhos, dentre outros;A nota dos exercícios (NE) será a média aritmética dos exercícios individuais;NF = (0,8NP + 0,2NE)</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota do projeto (NP) será individual e será a média ponderada de componentes do projeto, tais como: Projeto Preliminar, Projeto Final, envolvimento do aluno com o projeto, avaliação dos Pares, apresentação de trabalhos, dentre outros;A nota dos exercícios (NE) será a média aritmética dos exercícios individuais;NF = (0,8NP + 0,2NE)</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2n</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2n</t>
+    <t>1.Blank L. e Tarquin A. Engenharia Econômica. 6ed. Mc GrawHill, 2007.2.Fraser N. M., Jewkes, Elizabeth M. Engineering Economics: Financial decision making for engineers. 5th Edition. Editora Pearson, 2013. 3.Samanez, Carlos Patrício. Engenharia Econômica. São Paulo. Editora Prentice Hall, 2009. 4.Hirschfeld, Henrique. Engenharia Econômica e análise de custos. 7ed. Editora Atalas, 2007. 5.Ehrlich, Pierre Jacques. Engenharia Econômica. São Paulo. Editora Atlas, 2005 6.Peter, MS. And Timmerhaus, K.D. Plant Design and economic for chemical engineers</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
